--- a/ExcelTestApp/Data/BazaRetkihBolestiTemplate.xlsx
+++ b/ExcelTestApp/Data/BazaRetkihBolestiTemplate.xlsx
@@ -516,10 +516,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -530,7 +530,7 @@
     <col min="3" max="3" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,124 +541,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Progressive sensorineural hearing loss-hypertrophic cardiomyopathy syndrome</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Progressive sensorineural hearing loss-hypertrophic cardiomyopathy syndrome</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/ExcelTestApp/Data/BazaRetkihBolestiTemplate.xlsx
+++ b/ExcelTestApp/Data/BazaRetkihBolestiTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.tesanovic\Documents\visual studio 2015\Projects\ExcelTestApp\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ExcelApp\ExcelTestApp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="27870" windowHeight="13020" tabRatio="500"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="27870" windowHeight="13020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,10 +516,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -530,7 +530,7 @@
     <col min="3" max="3" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,138 +541,124 @@
         <v>2</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row spans="1:3" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="26">
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>Progressive sensorineural hearing loss-hypertrophic cardiomyopathy syndrome</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="27">
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>Progressive sensorineural hearing loss-hypertrophic cardiomyopathy syndrome</t>
-        </is>
       </c>
     </row>
   </sheetData>
